--- a/StructureDefinition-pacio-cs.xlsx
+++ b/StructureDefinition-pacio-cs.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$52</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="422">
   <si>
     <t>Path</t>
   </si>
@@ -328,33 +328,66 @@
     <t>Observation.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>event-location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {event-location}
+</t>
+  </si>
+  <si>
+    <t>Where event occurred</t>
+  </si>
+  <si>
+    <t>The principal physical location where the {{title}} was performed.</t>
+  </si>
+  <si>
+    <t>May reference only *Provenance* resources deemed “relevant” or important. This element does not point to the Provenance associated with the current version of the resource - as it would be created after this version existed. The Provenance for the current version can be retrieved with a [` _revinclude`](search.html#revinclude).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Event.location</t>
+  </si>
+  <si>
+    <t>EVN.7</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=LOC].role</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -362,6 +395,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -1024,6 +1060,9 @@
   </si>
   <si>
     <t>Observation.referenceRange.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1449,7 +1488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO51"/>
+  <dimension ref="A1:AO52"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1459,7 +1498,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.19921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2449,7 +2488,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2468,17 +2507,15 @@
         <v>45</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>104</v>
-      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>45</v>
@@ -2515,16 +2552,14 @@
         <v>45</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>105</v>
@@ -2551,7 +2586,7 @@
         <v>45</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>45</v>
@@ -2560,45 +2595,45 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>45</v>
       </c>
@@ -2646,7 +2681,7 @@
         <v>45</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>43</v>
@@ -2655,22 +2690,22 @@
         <v>44</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>45</v>
@@ -2681,11 +2716,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2698,23 +2733,25 @@
         <v>45</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="N11" t="s" s="2">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>45</v>
@@ -2763,7 +2800,7 @@
         <v>45</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>43</v>
@@ -2775,22 +2812,22 @@
         <v>45</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>45</v>
@@ -2798,11 +2835,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2821,17 +2858,17 @@
         <v>56</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>45</v>
@@ -2880,7 +2917,7 @@
         <v>45</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>43</v>
@@ -2895,19 +2932,19 @@
         <v>67</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>45</v>
@@ -2915,11 +2952,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2938,18 +2975,18 @@
         <v>56</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>45</v>
       </c>
@@ -2997,7 +3034,7 @@
         <v>45</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
@@ -3012,16 +3049,16 @@
         <v>67</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>45</v>
@@ -3032,43 +3069,41 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>45</v>
       </c>
@@ -3092,13 +3127,13 @@
         <v>45</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>45</v>
@@ -3116,13 +3151,13 @@
         <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>45</v>
@@ -3134,16 +3169,16 @@
         <v>147</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AM14" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="AN14" t="s" s="2">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>45</v>
@@ -3151,7 +3186,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3159,34 +3194,34 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>45</v>
@@ -3211,13 +3246,13 @@
         <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
@@ -3235,13 +3270,13 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>45</v>
@@ -3250,19 +3285,19 @@
         <v>67</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
@@ -3270,18 +3305,18 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>163</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>45</v>
@@ -3290,22 +3325,22 @@
         <v>45</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3330,11 +3365,13 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="X16" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="Y16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
@@ -3352,13 +3389,13 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>45</v>
@@ -3367,31 +3404,31 @@
         <v>67</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AM16" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="AO16" t="s" s="2">
-        <v>175</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3410,19 +3447,19 @@
         <v>56</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3447,13 +3484,11 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3471,10 +3506,10 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>55</v>
@@ -3486,10 +3521,10 @@
         <v>67</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>183</v>
@@ -3501,12 +3536,12 @@
         <v>185</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>45</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3514,10 +3549,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>45</v>
@@ -3529,18 +3564,20 @@
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>45</v>
       </c>
@@ -3588,13 +3625,13 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>45</v>
@@ -3603,19 +3640,19 @@
         <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>45</v>
+        <v>193</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>45</v>
@@ -3623,18 +3660,18 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>193</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>45</v>
@@ -3646,20 +3683,18 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>45</v>
       </c>
@@ -3707,13 +3742,13 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>45</v>
@@ -3722,19 +3757,19 @@
         <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3865,7 +3900,7 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>45</v>
+        <v>215</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3884,18 +3919,20 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
       </c>
@@ -3958,19 +3995,19 @@
         <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -3978,7 +4015,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3986,10 +4023,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s" s="2">
         <v>55</v>
-      </c>
-      <c r="F22" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>45</v>
@@ -4001,18 +4038,18 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>45</v>
       </c>
@@ -4060,13 +4097,13 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>45</v>
@@ -4075,19 +4112,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4095,7 +4132,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4103,10 +4140,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>45</v>
@@ -4118,19 +4155,17 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>153</v>
+        <v>234</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4179,42 +4214,42 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>45</v>
+        <v>238</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>237</v>
+        <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>240</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4234,22 +4269,22 @@
         <v>45</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4274,13 +4309,13 @@
         <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>45</v>
@@ -4298,7 +4333,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4307,7 +4342,7 @@
         <v>55</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>67</v>
@@ -4316,35 +4351,35 @@
         <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>45</v>
+        <v>248</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>98</v>
+        <v>249</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>45</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>45</v>
@@ -4356,19 +4391,19 @@
         <v>45</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4393,13 +4428,13 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
@@ -4417,16 +4452,16 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>45</v>
+        <v>259</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>67</v>
@@ -4435,10 +4470,10 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>259</v>
+        <v>98</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>260</v>
@@ -4447,16 +4482,16 @@
         <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>261</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4475,19 +4510,19 @@
         <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4512,13 +4547,13 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>45</v>
+        <v>267</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>45</v>
+        <v>268</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>45</v>
@@ -4536,7 +4571,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4554,24 +4589,24 @@
         <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>45</v>
+        <v>269</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>45</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4582,7 +4617,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>45</v>
@@ -4594,18 +4629,20 @@
         <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>153</v>
+        <v>274</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4629,13 +4666,13 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>274</v>
+        <v>45</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>275</v>
+        <v>45</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>276</v>
+        <v>45</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
@@ -4653,13 +4690,13 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
@@ -4671,19 +4708,19 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>277</v>
+        <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>280</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" hidden="true">
@@ -4711,7 +4748,7 @@
         <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>282</v>
@@ -4722,9 +4759,7 @@
       <c r="M28" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="N28" t="s" s="2">
-        <v>285</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>45</v>
       </c>
@@ -4748,7 +4783,7 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="X28" t="s" s="2">
         <v>286</v>
@@ -4790,24 +4825,24 @@
         <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>45</v>
+        <v>288</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>45</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4830,18 +4865,20 @@
         <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
       </c>
@@ -4865,13 +4902,13 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>45</v>
+        <v>297</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>45</v>
+        <v>298</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
@@ -4889,7 +4926,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4907,24 +4944,24 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>295</v>
+        <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>298</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4947,16 +4984,16 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5006,7 +5043,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5024,24 +5061,24 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5052,7 +5089,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>45</v>
@@ -5064,20 +5101,18 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
@@ -5125,42 +5160,42 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>314</v>
+        <v>67</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>45</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5171,7 +5206,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>45</v>
@@ -5183,16 +5218,20 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>57</v>
+        <v>320</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
@@ -5240,19 +5279,19 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>45</v>
+        <v>325</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>45</v>
@@ -5261,10 +5300,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>45</v>
+        <v>326</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5275,18 +5314,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>45</v>
@@ -5298,17 +5337,15 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>102</v>
+        <v>329</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5357,19 +5394,19 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>45</v>
@@ -5381,7 +5418,7 @@
         <v>45</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5392,11 +5429,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>326</v>
+        <v>117</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5409,26 +5446,24 @@
         <v>45</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5476,7 +5511,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5500,7 +5535,7 @@
         <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>98</v>
+        <v>332</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5511,39 +5546,43 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>45</v>
+        <v>338</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>331</v>
+        <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5591,19 +5630,19 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>334</v>
+        <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>45</v>
@@ -5612,10 +5651,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>335</v>
+        <v>45</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>336</v>
+        <v>98</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5626,7 +5665,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5649,13 +5688,13 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5706,7 +5745,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5715,7 +5754,7 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>67</v>
@@ -5727,10 +5766,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5741,7 +5780,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5764,20 +5803,16 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>153</v>
+        <v>343</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>45</v>
       </c>
@@ -5801,13 +5836,13 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>346</v>
+        <v>45</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>347</v>
+        <v>45</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -5825,7 +5860,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5834,7 +5869,7 @@
         <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>45</v>
+        <v>346</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>67</v>
@@ -5843,13 +5878,13 @@
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>348</v>
+        <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>260</v>
+        <v>352</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5860,7 +5895,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5871,7 +5906,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -5883,19 +5918,19 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -5920,13 +5955,13 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -5944,13 +5979,13 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>45</v>
@@ -5962,13 +5997,13 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -5979,7 +6014,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5990,7 +6025,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
@@ -6002,17 +6037,19 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>358</v>
+        <v>164</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="N39" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6037,13 +6074,13 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>45</v>
+        <v>367</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>45</v>
+        <v>368</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6061,13 +6098,13 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
@@ -6079,13 +6116,13 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>45</v>
+        <v>360</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>45</v>
+        <v>361</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>362</v>
+        <v>271</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6096,7 +6133,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6119,16 +6156,18 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>57</v>
+        <v>370</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6176,7 +6215,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6197,10 +6236,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>335</v>
+        <v>45</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6211,7 +6250,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6222,7 +6261,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>45</v>
@@ -6231,20 +6270,18 @@
         <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>368</v>
+        <v>57</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6293,13 +6330,13 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>45</v>
@@ -6314,10 +6351,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6328,7 +6365,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6351,16 +6388,16 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6410,7 +6447,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6431,10 +6468,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6445,7 +6482,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6468,20 +6505,18 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>309</v>
+        <v>387</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6529,7 +6564,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6550,10 +6585,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6564,7 +6599,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6575,7 +6610,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>45</v>
@@ -6584,19 +6619,23 @@
         <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>57</v>
+        <v>320</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>318</v>
+        <v>393</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6644,19 +6683,19 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>320</v>
+        <v>392</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>45</v>
@@ -6665,10 +6704,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>45</v>
+        <v>397</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>321</v>
+        <v>398</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6679,18 +6718,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>45</v>
@@ -6702,17 +6741,15 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>102</v>
+        <v>329</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6761,19 +6798,19 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>45</v>
@@ -6785,7 +6822,7 @@
         <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6796,11 +6833,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>326</v>
+        <v>117</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6813,26 +6850,24 @@
         <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -6880,7 +6915,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6904,7 +6939,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>98</v>
+        <v>332</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -6915,42 +6950,42 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>45</v>
+        <v>338</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>391</v>
+        <v>339</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>392</v>
+        <v>340</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>393</v>
+        <v>120</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -6975,13 +7010,13 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>274</v>
+        <v>45</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>394</v>
+        <v>45</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>395</v>
+        <v>45</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -6999,34 +7034,34 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>45</v>
@@ -7034,7 +7069,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7042,7 +7077,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>55</v>
@@ -7057,19 +7092,19 @@
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>398</v>
+        <v>164</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>233</v>
+        <v>404</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7094,13 +7129,13 @@
         <v>45</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>45</v>
+        <v>406</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>45</v>
+        <v>407</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>45</v>
@@ -7118,10 +7153,10 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>55</v>
@@ -7136,24 +7171,24 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>240</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7173,22 +7208,22 @@
         <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>153</v>
+        <v>410</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>404</v>
+        <v>244</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7213,13 +7248,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7237,7 +7272,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7246,7 +7281,7 @@
         <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>67</v>
@@ -7255,35 +7290,35 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>45</v>
+        <v>413</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>98</v>
+        <v>249</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>45</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -7295,19 +7330,19 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>252</v>
+        <v>415</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>253</v>
+        <v>416</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>254</v>
+        <v>417</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7332,13 +7367,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7356,16 +7391,16 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>45</v>
+        <v>259</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>67</v>
@@ -7374,10 +7409,10 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>259</v>
+        <v>98</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>260</v>
@@ -7386,16 +7421,16 @@
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>261</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7414,19 +7449,19 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>408</v>
+        <v>263</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>409</v>
+        <v>264</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>312</v>
+        <v>265</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7451,13 +7486,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>45</v>
+        <v>267</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>45</v>
+        <v>268</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7475,7 +7510,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7493,23 +7528,142 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>45</v>
+        <v>269</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO52" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO51">
+  <autoFilter ref="A1:AO52">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7519,7 +7673,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI50">
+  <conditionalFormatting sqref="A2:AI51">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pacio-cs.xlsx
+++ b/StructureDefinition-pacio-cs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="423">
   <si>
     <t>Path</t>
   </si>
@@ -777,6 +777,10 @@
   </si>
   <si>
     <t>Observation.value[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+CodeableConcept</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -4272,19 +4276,19 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>164</v>
+        <v>243</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4342,7 +4346,7 @@
         <v>55</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>67</v>
@@ -4351,24 +4355,24 @@
         <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4394,16 +4398,16 @@
         <v>164</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4431,10 +4435,10 @@
         <v>179</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
@@ -4452,7 +4456,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4461,7 +4465,7 @@
         <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>67</v>
@@ -4476,7 +4480,7 @@
         <v>98</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
@@ -4487,11 +4491,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4513,16 +4517,16 @@
         <v>164</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4550,10 +4554,10 @@
         <v>179</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>45</v>
@@ -4571,7 +4575,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4589,24 +4593,24 @@
         <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4629,19 +4633,19 @@
         <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4690,7 +4694,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4711,10 +4715,10 @@
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
@@ -4725,7 +4729,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4751,13 +4755,13 @@
         <v>164</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4783,13 +4787,13 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>45</v>
@@ -4807,7 +4811,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4825,24 +4829,24 @@
         <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4868,16 +4872,16 @@
         <v>164</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -4902,13 +4906,13 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
@@ -4926,7 +4930,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4947,10 +4951,10 @@
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
@@ -4961,7 +4965,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4984,16 +4988,16 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5043,7 +5047,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5061,24 +5065,24 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5101,16 +5105,16 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5160,7 +5164,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5178,24 +5182,24 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5218,19 +5222,19 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5279,7 +5283,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5291,7 +5295,7 @@
         <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>45</v>
@@ -5300,10 +5304,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5314,7 +5318,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5340,10 +5344,10 @@
         <v>57</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5394,7 +5398,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5418,7 +5422,7 @@
         <v>45</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5429,7 +5433,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5455,10 +5459,10 @@
         <v>100</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>120</v>
@@ -5511,7 +5515,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5535,7 +5539,7 @@
         <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5546,11 +5550,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5572,10 +5576,10 @@
         <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>120</v>
@@ -5630,7 +5634,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5665,7 +5669,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5688,13 +5692,13 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5745,7 +5749,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5754,7 +5758,7 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>67</v>
@@ -5766,10 +5770,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5780,7 +5784,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5803,13 +5807,13 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5860,7 +5864,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5869,7 +5873,7 @@
         <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>67</v>
@@ -5881,10 +5885,10 @@
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5895,7 +5899,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5921,16 +5925,16 @@
         <v>164</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -5958,10 +5962,10 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -5979,7 +5983,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -5997,13 +6001,13 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6014,7 +6018,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6040,16 +6044,16 @@
         <v>164</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6074,13 +6078,13 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6098,7 +6102,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6116,13 +6120,13 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6133,7 +6137,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6156,17 +6160,17 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6215,7 +6219,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6239,7 +6243,7 @@
         <v>45</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6250,7 +6254,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6276,10 +6280,10 @@
         <v>57</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6330,7 +6334,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6351,10 +6355,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6365,7 +6369,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6388,16 +6392,16 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6447,7 +6451,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6468,10 +6472,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6482,7 +6486,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6505,16 +6509,16 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6564,7 +6568,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6585,10 +6589,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6599,7 +6603,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6622,19 +6626,19 @@
         <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6683,7 +6687,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6704,10 +6708,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6718,7 +6722,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6744,10 +6748,10 @@
         <v>57</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6798,7 +6802,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6822,7 +6826,7 @@
         <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6833,7 +6837,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6859,10 +6863,10 @@
         <v>100</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>120</v>
@@ -6915,7 +6919,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6939,7 +6943,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -6950,11 +6954,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6976,10 +6980,10 @@
         <v>100</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>120</v>
@@ -7034,7 +7038,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7069,7 +7073,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7095,13 +7099,13 @@
         <v>164</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>178</v>
@@ -7129,13 +7133,13 @@
         <v>45</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>45</v>
@@ -7153,7 +7157,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>55</v>
@@ -7171,7 +7175,7 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>183</v>
@@ -7188,7 +7192,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7211,19 +7215,19 @@
         <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7272,7 +7276,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7290,24 +7294,24 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7333,16 +7337,16 @@
         <v>164</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7370,10 +7374,10 @@
         <v>179</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7391,7 +7395,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7400,7 +7404,7 @@
         <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>67</v>
@@ -7415,7 +7419,7 @@
         <v>98</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7426,11 +7430,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7452,16 +7456,16 @@
         <v>164</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7489,10 +7493,10 @@
         <v>179</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7510,7 +7514,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7528,24 +7532,24 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7571,16 +7575,16 @@
         <v>45</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7629,7 +7633,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7650,10 +7654,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>

--- a/StructureDefinition-pacio-cs.xlsx
+++ b/StructureDefinition-pacio-cs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="422">
   <si>
     <t>Path</t>
   </si>
@@ -1295,7 +1295,7 @@
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
   </si>
   <si>
-    <t>Codes identifying names of simple observations.</t>
+    <t>If used, the LOINC code or text of the column header (for the purpose of grouping answers under a heading and displaying side-by-side columns).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
@@ -1306,10 +1306,6 @@
   </si>
   <si>
     <t>Observation.component.value[x]</t>
-  </si>
-  <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -1524,7 +1520,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="135.2421875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
@@ -7215,16 +7211,16 @@
         <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>245</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>247</v>
@@ -7294,7 +7290,7 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>250</v>
@@ -7311,7 +7307,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7337,13 +7333,13 @@
         <v>164</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>257</v>
@@ -7395,7 +7391,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7430,7 +7426,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7514,7 +7510,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7549,7 +7545,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7575,10 +7571,10 @@
         <v>45</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>324</v>
@@ -7633,7 +7629,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>

--- a/StructureDefinition-pacio-cs.xlsx
+++ b/StructureDefinition-pacio-cs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="412">
   <si>
     <t>Path</t>
   </si>
@@ -443,7 +443,7 @@
 </t>
   </si>
   <si>
-    <t>Fulfills plan, proposal or order</t>
+    <t>Currently not used in CognitiveStatus.</t>
   </si>
   <si>
     <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
@@ -472,9 +472,6 @@
 </t>
   </si>
   <si>
-    <t>Part of referenced event</t>
-  </si>
-  <si>
     <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
   </si>
   <si>
@@ -493,7 +490,7 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>registered | preliminary | final | amended +</t>
+    <t>Should have the value 'final' to indicate the observation is complete.</t>
   </si>
   <si>
     <t>The status of the result value.</t>
@@ -567,7 +564,7 @@
 </t>
   </si>
   <si>
-    <t>Type of observation (code / type)</t>
+    <t>For a Post-Acute Care Assessment, should include a LOINC code and text for the question.</t>
   </si>
   <si>
     <t>Describes what was observed. Sometimes this is called the observation "name".</t>
@@ -577,9 +574,6 @@
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>http://loinc.org</t>
@@ -610,7 +604,7 @@
 </t>
   </si>
   <si>
-    <t>Who and/or what the observation is about</t>
+    <t>Should only reference a Patient resource</t>
   </si>
   <si>
     <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
@@ -641,9 +635,6 @@
 </t>
   </si>
   <si>
-    <t>What the observation is about, when it is not about the subject of record</t>
-  </si>
-  <si>
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
   </si>
   <si>
@@ -730,9 +721,6 @@
 </t>
   </si>
   <si>
-    <t>Date/Time this version was made available</t>
-  </si>
-  <si>
     <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
   </si>
   <si>
@@ -755,7 +743,7 @@
 </t>
   </si>
   <si>
-    <t>Who is responsible for the observation</t>
+    <t xml:space="preserve">The person who performed the assessment. May also be used to provide the practitioner role and organization. </t>
   </si>
   <si>
     <t>Who was responsible for asserting the observed value as "true".</t>
@@ -777,10 +765,6 @@
   </si>
   <si>
     <t>Observation.value[x]</t>
-  </si>
-  <si>
-    <t>Quantity
-CodeableConcept</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -827,6 +811,9 @@
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
@@ -847,9 +834,6 @@
 </t>
   </si>
   <si>
-    <t>High, low, normal, etc.</t>
-  </si>
-  <si>
     <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
   </si>
   <si>
@@ -905,9 +889,6 @@
     <t>Observation.bodySite</t>
   </si>
   <si>
-    <t>Observed body part</t>
-  </si>
-  <si>
     <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
   </si>
   <si>
@@ -939,9 +920,6 @@
     <t>Observation.method</t>
   </si>
   <si>
-    <t>How it was done</t>
-  </si>
-  <si>
     <t>Indicates the mechanism used to perform the observation.</t>
   </si>
   <si>
@@ -970,9 +948,6 @@
 </t>
   </si>
   <si>
-    <t>Specimen used for this observation</t>
-  </si>
-  <si>
     <t>The specimen that was used when this observation was made.</t>
   </si>
   <si>
@@ -998,9 +973,6 @@
 </t>
   </si>
   <si>
-    <t>(Measurement) Device</t>
-  </si>
-  <si>
     <t>The device used to generate the observation data.</t>
   </si>
   <si>
@@ -1024,9 +996,6 @@
   <si>
     <t xml:space="preserve">BackboneElement
 </t>
-  </si>
-  <si>
-    <t>Provides guide for interpretation</t>
   </si>
   <si>
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.  Multiple reference ranges are interpreted as an "OR".   In other words, to represent two distinct target populations, two `referenceRange` elements would be used.</t>
@@ -1219,9 +1188,6 @@
 </t>
   </si>
   <si>
-    <t>Related resource that belongs to the Observation group</t>
-  </si>
-  <si>
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
@@ -1256,7 +1222,7 @@
     <t>Observation.component</t>
   </si>
   <si>
-    <t>Component results</t>
+    <t>If used, the answers for the associated questions (for the purpose of grouping answers under a heading and displaying side-by-side columns)</t>
   </si>
   <si>
     <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>
@@ -1286,7 +1252,7 @@
     <t>Observation.component.code</t>
   </si>
   <si>
-    <t>Type of component observation (code / type)</t>
+    <t>If used, the LOINC code or text of the column header (for the purpose of grouping answers under a heading and displaying side-by-side columns).</t>
   </si>
   <si>
     <t>Describes what was observed. Sometimes this is called the observation "code".</t>
@@ -1295,7 +1261,7 @@
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
   </si>
   <si>
-    <t>If used, the LOINC code or text of the column header (for the purpose of grouping answers under a heading and displaying side-by-side columns).</t>
+    <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
@@ -1308,7 +1274,7 @@
     <t>Observation.component.value[x]</t>
   </si>
   <si>
-    <t>Actual component result</t>
+    <t>The code and text for the answer to the (associated) question.</t>
   </si>
   <si>
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
@@ -1331,6 +1297,9 @@
   </si>
   <si>
     <t>Observation.component.interpretation</t>
+  </si>
+  <si>
+    <t>High, low, normal, etc.</t>
   </si>
   <si>
     <t>Observation.component.referenceRange</t>
@@ -1507,7 +1476,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="135.2421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1520,7 +1489,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="135.2421875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
@@ -3095,13 +3064,13 @@
         <v>143</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3166,16 +3135,16 @@
         <v>67</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="AK14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>45</v>
@@ -3186,7 +3155,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3212,16 +3181,16 @@
         <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>45</v>
@@ -3246,14 +3215,14 @@
         <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="Y15" t="s" s="2">
-        <v>157</v>
-      </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
       </c>
@@ -3270,7 +3239,7 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>55</v>
@@ -3285,19 +3254,19 @@
         <v>67</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
@@ -3305,7 +3274,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3328,19 +3297,19 @@
         <v>45</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3368,11 +3337,11 @@
         <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>170</v>
-      </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
       </c>
@@ -3389,7 +3358,7 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>43</v>
@@ -3413,10 +3382,10 @@
         <v>45</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>45</v>
@@ -3424,11 +3393,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3447,19 +3416,19 @@
         <v>56</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3484,11 +3453,11 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3506,7 +3475,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>55</v>
@@ -3521,27 +3490,27 @@
         <v>67</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>186</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3564,19 +3533,19 @@
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>45</v>
@@ -3625,7 +3594,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3640,19 +3609,19 @@
         <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AK18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>45</v>
@@ -3660,7 +3629,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3683,16 +3652,16 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3742,7 +3711,7 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3763,13 +3732,13 @@
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3777,11 +3746,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3800,19 +3769,19 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -3861,7 +3830,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3876,19 +3845,19 @@
         <v>67</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3896,11 +3865,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3919,19 +3888,19 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -3980,7 +3949,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -3995,19 +3964,19 @@
         <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -4015,7 +3984,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4038,16 +4007,16 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4097,7 +4066,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4118,13 +4087,13 @@
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4132,7 +4101,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4155,17 +4124,17 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4214,7 +4183,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4229,19 +4198,19 @@
         <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4249,7 +4218,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4272,19 +4241,19 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>243</v>
+        <v>163</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4333,7 +4302,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4342,7 +4311,7 @@
         <v>55</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>67</v>
@@ -4351,24 +4320,24 @@
         <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4391,19 +4360,19 @@
         <v>45</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4428,13 +4397,13 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
@@ -4452,7 +4421,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4461,7 +4430,7 @@
         <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>67</v>
@@ -4476,7 +4445,7 @@
         <v>98</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
@@ -4487,11 +4456,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4510,19 +4479,19 @@
         <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>264</v>
+        <v>135</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4547,13 +4516,13 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>45</v>
@@ -4571,7 +4540,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4589,24 +4558,24 @@
         <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4629,19 +4598,19 @@
         <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4690,7 +4659,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4711,10 +4680,10 @@
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
@@ -4725,7 +4694,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4748,16 +4717,16 @@
         <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>283</v>
+        <v>135</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4783,13 +4752,13 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>45</v>
@@ -4807,7 +4776,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4825,24 +4794,24 @@
         <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4865,19 +4834,19 @@
         <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>294</v>
+        <v>135</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -4902,13 +4871,13 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
@@ -4926,7 +4895,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4947,10 +4916,10 @@
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
@@ -4961,7 +4930,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4984,16 +4953,16 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>304</v>
+        <v>135</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5043,7 +5012,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5061,24 +5030,24 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5101,16 +5070,16 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>313</v>
+        <v>135</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5160,7 +5129,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5178,24 +5147,24 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5218,19 +5187,19 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>322</v>
+        <v>135</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5279,7 +5248,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5291,7 +5260,7 @@
         <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>45</v>
@@ -5300,10 +5269,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5314,7 +5283,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5340,10 +5309,10 @@
         <v>57</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5394,7 +5363,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5418,7 +5387,7 @@
         <v>45</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5429,7 +5398,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5455,10 +5424,10 @@
         <v>100</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>120</v>
@@ -5511,7 +5480,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5535,7 +5504,7 @@
         <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5546,11 +5515,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5572,10 +5541,10 @@
         <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>120</v>
@@ -5630,7 +5599,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5665,7 +5634,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5688,13 +5657,13 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5745,7 +5714,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5754,7 +5723,7 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>67</v>
@@ -5766,10 +5735,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5780,7 +5749,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5803,13 +5772,13 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5860,7 +5829,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5869,7 +5838,7 @@
         <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>67</v>
@@ -5881,10 +5850,10 @@
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5895,7 +5864,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5918,19 +5887,19 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -5958,10 +5927,10 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -5979,7 +5948,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -5997,13 +5966,13 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6014,7 +5983,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6037,19 +6006,19 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6074,13 +6043,13 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6098,7 +6067,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6116,13 +6085,13 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6133,7 +6102,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6156,17 +6125,17 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6215,7 +6184,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6239,7 +6208,7 @@
         <v>45</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6250,7 +6219,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6276,10 +6245,10 @@
         <v>57</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6330,7 +6299,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6351,10 +6320,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6365,7 +6334,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6388,16 +6357,16 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>382</v>
+        <v>135</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6447,7 +6416,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6468,10 +6437,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6482,7 +6451,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6505,16 +6474,16 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6564,7 +6533,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6585,10 +6554,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6599,7 +6568,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6622,19 +6591,19 @@
         <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6683,7 +6652,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6704,10 +6673,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6718,7 +6687,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6744,10 +6713,10 @@
         <v>57</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6798,7 +6767,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6822,7 +6791,7 @@
         <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6833,7 +6802,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6859,10 +6828,10 @@
         <v>100</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>120</v>
@@ -6915,7 +6884,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6939,7 +6908,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -6950,11 +6919,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6976,10 +6945,10 @@
         <v>100</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>120</v>
@@ -7034,7 +7003,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7069,7 +7038,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7092,19 +7061,19 @@
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7129,13 +7098,13 @@
         <v>45</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>45</v>
@@ -7153,7 +7122,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>55</v>
@@ -7171,16 +7140,16 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>45</v>
@@ -7188,7 +7157,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7211,19 +7180,19 @@
         <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7272,7 +7241,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7290,24 +7259,24 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7330,19 +7299,19 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7367,13 +7336,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7391,7 +7360,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7400,7 +7369,7 @@
         <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>67</v>
@@ -7415,7 +7384,7 @@
         <v>98</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7426,11 +7395,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7449,19 +7418,19 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>264</v>
+        <v>408</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7486,13 +7455,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7510,7 +7479,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7528,24 +7497,24 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7571,16 +7540,16 @@
         <v>45</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7629,7 +7598,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7650,10 +7619,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>

--- a/StructureDefinition-pacio-cs.xlsx
+++ b/StructureDefinition-pacio-cs.xlsx
@@ -576,6 +576,9 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>http://loinc.org</t>
   </si>
   <si>
@@ -809,9 +812,6 @@
   </si>
   <si>
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
@@ -3453,11 +3453,11 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3490,27 +3490,27 @@
         <v>67</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3533,19 +3533,19 @@
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>45</v>
@@ -3594,7 +3594,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3609,19 +3609,19 @@
         <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>45</v>
@@ -3629,7 +3629,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3652,16 +3652,16 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3711,7 +3711,7 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3732,13 +3732,13 @@
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3746,11 +3746,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3769,19 +3769,19 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -3830,7 +3830,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3845,19 +3845,19 @@
         <v>67</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3865,11 +3865,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3888,19 +3888,19 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -3949,7 +3949,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -3964,19 +3964,19 @@
         <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -3984,7 +3984,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4007,16 +4007,16 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4066,7 +4066,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4087,13 +4087,13 @@
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4101,7 +4101,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4124,17 +4124,17 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4183,7 +4183,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4198,19 +4198,19 @@
         <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4218,7 +4218,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4244,16 +4244,16 @@
         <v>163</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4302,7 +4302,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4311,7 +4311,7 @@
         <v>55</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>67</v>
@@ -4320,24 +4320,24 @@
         <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4363,16 +4363,16 @@
         <v>163</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4397,7 +4397,7 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>253</v>
+        <v>178</v>
       </c>
       <c r="X25" t="s" s="2">
         <v>254</v>
@@ -4421,7 +4421,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4516,7 +4516,7 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>253</v>
+        <v>178</v>
       </c>
       <c r="X26" t="s" s="2">
         <v>263</v>
@@ -7143,13 +7143,13 @@
         <v>398</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>45</v>
@@ -7186,13 +7186,13 @@
         <v>400</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>401</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7262,16 +7262,16 @@
         <v>402</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" hidden="true">
@@ -7311,7 +7311,7 @@
         <v>406</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7336,7 +7336,7 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>253</v>
+        <v>178</v>
       </c>
       <c r="X50" t="s" s="2">
         <v>254</v>
@@ -7455,7 +7455,7 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>253</v>
+        <v>178</v>
       </c>
       <c r="X51" t="s" s="2">
         <v>263</v>

--- a/StructureDefinition-pacio-cs.xlsx
+++ b/StructureDefinition-pacio-cs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="410">
   <si>
     <t>Path</t>
   </si>
@@ -1259,12 +1259,6 @@
   </si>
   <si>
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -7098,13 +7092,11 @@
         <v>45</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="X48" s="2"/>
       <c r="Y48" t="s" s="2">
-        <v>397</v>
+        <v>179</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>45</v>
@@ -7140,7 +7132,7 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>182</v>
@@ -7157,7 +7149,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7183,13 +7175,13 @@
         <v>163</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>241</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>243</v>
@@ -7241,7 +7233,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7259,7 +7251,7 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>246</v>
@@ -7276,7 +7268,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7302,13 +7294,13 @@
         <v>163</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>253</v>
@@ -7360,7 +7352,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7395,7 +7387,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7421,7 +7413,7 @@
         <v>163</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>260</v>
@@ -7479,7 +7471,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7514,7 +7506,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7540,10 +7532,10 @@
         <v>45</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>314</v>
@@ -7598,7 +7590,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>

--- a/StructureDefinition-pacio-cs.xlsx
+++ b/StructureDefinition-pacio-cs.xlsx
@@ -3867,7 +3867,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>55</v>

--- a/StructureDefinition-pacio-cs.xlsx
+++ b/StructureDefinition-pacio-cs.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AP$53</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="418">
   <si>
     <t>Path</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: Argonaut-DQ-DSTU2</t>
   </si>
   <si>
     <t>Mapping: Workflow Pattern</t>
@@ -159,14 +162,14 @@
     <t>Measurements and simple assertions</t>
   </si>
   <si>
-    <t>Measurements and simple assertions made about a patient, device or other subject.</t>
+    <t>This profile is  created to meet the 2015 Edition Common Clinical Data Set 'Laboratory test(s) and Laboratory value(s)/result(s)' requirements.</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}us-core-2:If there is no component or related element then either a value[x] or a data absent reason must be present {(component.empty() and related.empty()) implies (dataAbsentReason or value)}</t>
   </si>
   <si>
     <t>Event</t>
@@ -505,10 +508,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -551,26 +551,41 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
   </si>
   <si>
     <t>FiveWs.class</t>
   </si>
   <si>
+    <t>Laboratory</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
+    &lt;code value="laboratory"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>Observation.code</t>
   </si>
   <si>
-    <t xml:space="preserve">Name
-</t>
+    <t>Name
+Test NameObservation Identifer</t>
   </si>
   <si>
     <t>For a Post-Acute Care Assessment, should include a LOINC code and text for the question.</t>
   </si>
   <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
-  </si>
-  <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+    <t>The test that was performed.  A LOINC **SHALL** be used if the concept is present in LOINC.</t>
+  </si>
+  <si>
+    <t>The typical patterns for codes are:  1)  a LOINC code either as a  translation from a "local" code or as a primary code, or 2)  a local code only if no suitable LOINC exists,  or 3)  both the local and the LOINC translation.   Systems SHALL be capable of sending the local code if one exists.  When using LOINC , Use either the SHORTNAME or LONG_COMMON_NAME field for the display.</t>
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
@@ -603,7 +618,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
 </t>
   </si>
   <si>
@@ -696,13 +711,21 @@
     <t>Clinically relevant time/time-period for observation</t>
   </si>
   <si>
-    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
+    <t>For lab tests this is the specimen collection date.  For Ask at Order Entry Questions (AOE)'s this is the date the question was asked.</t>
   </si>
   <si>
     <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">us-core-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+us-core-1:Datetime must be at least to day. {($this as dateTime).toString().length() &gt;= 8}</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -770,10 +793,10 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Actual result</t>
-  </si>
-  <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
+    <t>Result Value</t>
+  </si>
+  <si>
+    <t>The Laboratory result value.  If a coded value,  the valueCodeableConcept.code **SHOULD**  be selected from [SNOMED CT](http://hl7.org/fhir/ValueSet/uslab-obs-codedresults).  If a numeric value, valueQuantity.code **SHALL** be selected from [UCUM](http://unitsofmeasure.org).  A FHIR [UCUM Codes value set](http://hl7.org/fhir/STU3/valueset-ucum-units.html) that defines all UCUM codes is in the FHIR specification.</t>
   </si>
   <si>
     <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
@@ -782,8 +805,12 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t xml:space="preserve">obs-7
-</t>
+    <t>obs-7
+us-core-2us-core-3us-core-4</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+us-core-4:SHOULD use Snomed CT for coded Results {valueCodeableConcept.coding.system.empty() or valueCodeableConcept.coding.system = 'http://snomed.info/sct'}us-core-3:SHALL use UCUM for coded quantity units. {valueQuantity.system.empty() or valueQuantity.system = 'http://unitsofmeasure.org'}</t>
   </si>
   <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
@@ -814,14 +841,11 @@
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
   </si>
   <si>
-    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
-    <t xml:space="preserve">obs-6
-</t>
+    <t>obs-6
+us-core-2</t>
   </si>
   <si>
     <t>value.nullFlavor</t>
@@ -1271,6 +1295,9 @@
     <t>The code and text for the answer to the (associated) question.</t>
   </si>
   <si>
+    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
+  </si>
+  <si>
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
@@ -1288,6 +1315,13 @@
   <si>
     <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
 The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
+  </si>
+  <si>
+    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs-6
+</t>
   </si>
   <si>
     <t>Observation.component.interpretation</t>
@@ -1451,7 +1485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO52"/>
+  <dimension ref="A1:AP53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1493,14 +1527,15 @@
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="26.89453125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="32.56640625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1627,107 +1662,110 @@
       <c r="AO1" t="s" s="1">
         <v>40</v>
       </c>
+      <c r="AP1" t="s" s="1">
+        <v>41</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>51</v>
@@ -1739,1169 +1777,1199 @@
         <v>53</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP2" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP3" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP4" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP5" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP6" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP7" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG8" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP8" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG9" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AD9" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP9" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG10" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>115</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP10" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG11" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP11" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG12" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R12" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>130</v>
@@ -2910,360 +2978,370 @@
         <v>131</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>45</v>
+        <v>132</v>
+      </c>
+      <c r="AP12" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG13" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP13" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG14" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>146</v>
+        <v>46</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>148</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP14" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="X15" t="s" s="2">
         <v>155</v>
       </c>
+      <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
         <v>156</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AO15" t="s" s="2">
-        <v>45</v>
+      <c r="AP15" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="16" hidden="true">
@@ -3272,23 +3350,23 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>163</v>
@@ -3306,29 +3384,29 @@
         <v>167</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
         <v>168</v>
@@ -3337,2057 +3415,2113 @@
         <v>169</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="AB16" s="2"/>
       <c r="AC16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>162</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>171</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>45</v>
+        <v>172</v>
+      </c>
+      <c r="AP16" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="C17" t="s" s="2">
-        <v>173</v>
+        <v>46</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>163</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R17" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG17" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="X17" s="2"/>
-      <c r="Y17" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE17" t="s" s="2">
+      <c r="AH17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AO17" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AF17" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>185</v>
+      <c r="AP17" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>45</v>
+        <v>176</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AF18" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>195</v>
-      </c>
       <c r="AO18" t="s" s="2">
-        <v>45</v>
+        <v>187</v>
+      </c>
+      <c r="AP18" t="s" s="2">
+        <v>188</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="O19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>200</v>
-      </c>
       <c r="AN19" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>45</v>
+        <v>198</v>
+      </c>
+      <c r="AP19" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>136</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG20" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>55</v>
-      </c>
       <c r="AH20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>208</v>
+        <v>46</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>209</v>
+        <v>46</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>45</v>
+        <v>198</v>
+      </c>
+      <c r="AP20" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="AN21" t="s" s="2">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>45</v>
+        <v>214</v>
+      </c>
+      <c r="AP21" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>45</v>
+        <v>216</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>135</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AI22" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AF22" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>67</v>
-      </c>
       <c r="AJ22" t="s" s="2">
-        <v>45</v>
+        <v>215</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AO22" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AM22" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>45</v>
+      <c r="AP22" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K23" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" t="s" s="2">
-        <v>234</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>235</v>
+        <v>46</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>236</v>
+        <v>46</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>45</v>
+        <v>234</v>
+      </c>
+      <c r="AP23" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>163</v>
+        <v>236</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG24" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R24" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>55</v>
-      </c>
       <c r="AH24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AO24" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AP24" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="25" hidden="true">
-      <c r="A25" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>163</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>178</v>
+        <v>46</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AO25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP25" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="Y25" t="s" s="2">
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" hidden="true">
-      <c r="A26" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>259</v>
+        <v>46</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>163</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>135</v>
+        <v>256</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>45</v>
+        <v>261</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>265</v>
+        <v>46</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>266</v>
+        <v>46</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>267</v>
+        <v>99</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>268</v>
+        <v>46</v>
+      </c>
+      <c r="AP26" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>270</v>
+        <v>163</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>271</v>
+        <v>136</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG27" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP27" t="s" s="2">
+        <v>273</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>163</v>
+        <v>275</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>135</v>
+        <v>276</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG28" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W28" t="s" s="2">
+      <c r="AH28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="X28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AO28" t="s" s="2">
-        <v>286</v>
+        <v>46</v>
+      </c>
+      <c r="AP28" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>163</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AO29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP29" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>45</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>296</v>
+        <v>163</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>45</v>
+        <v>296</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>45</v>
+        <v>297</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AL30" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AO30" t="s" s="2">
-        <v>302</v>
+        <v>46</v>
+      </c>
+      <c r="AP30" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AO31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP31" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>310</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>316</v>
+        <v>68</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>45</v>
+        <v>314</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP32" t="s" s="2">
+        <v>315</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>57</v>
+        <v>317</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG33" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE33" t="s" s="2">
+      <c r="AH33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AN33" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AO33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP33" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="34" hidden="true">
@@ -5396,26 +5530,26 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>325</v>
@@ -5423,116 +5557,117 @@
       <c r="L34" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M34" t="s" s="2">
-        <v>120</v>
-      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>327</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>323</v>
+        <v>46</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>45</v>
+        <v>328</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP34" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>329</v>
+        <v>118</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>330</v>
@@ -5541,89 +5676,90 @@
         <v>331</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N35" t="s" s="2">
         <v>121</v>
       </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>332</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>45</v>
+        <v>328</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP35" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="36" hidden="true">
@@ -5632,26 +5768,26 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>334</v>
+        <v>101</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>335</v>
@@ -5659,584 +5795,601 @@
       <c r="L36" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="M36" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="O36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG36" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>55</v>
-      </c>
       <c r="AH36" t="s" s="2">
-        <v>337</v>
+        <v>46</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>338</v>
+        <v>46</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>339</v>
+        <v>46</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP36" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>338</v>
+        <v>46</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>343</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>45</v>
+        <v>344</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP37" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>163</v>
+        <v>339</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M38" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="N38" t="s" s="2">
-        <v>348</v>
-      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>349</v>
+        <v>46</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>350</v>
+        <v>46</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>45</v>
+        <v>342</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>351</v>
+        <v>46</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>352</v>
+        <v>46</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>45</v>
+        <v>348</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP38" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>163</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>351</v>
+        <v>46</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>267</v>
+        <v>357</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP39" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>364</v>
-      </c>
       <c r="O40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG40" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>55</v>
-      </c>
       <c r="AH40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>45</v>
+        <v>356</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP40" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>57</v>
+        <v>366</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>367</v>
@@ -6245,347 +6398,356 @@
         <v>368</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="O41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>338</v>
+        <v>46</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>369</v>
+        <v>46</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>45</v>
+        <v>370</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP41" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>371</v>
+        <v>58</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>135</v>
+        <v>372</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M42" t="s" s="2">
         <v>373</v>
       </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AM42" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AO42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP42" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG43" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>374</v>
+        <v>46</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>45</v>
+        <v>380</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP43" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>312</v>
+        <v>382</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>383</v>
@@ -6596,230 +6758,238 @@
       <c r="M44" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="N44" t="s" s="2">
-        <v>386</v>
-      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG44" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>387</v>
+        <v>46</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>45</v>
+        <v>386</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP44" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>57</v>
+        <v>317</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>320</v>
+        <v>388</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="O45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG45" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>55</v>
-      </c>
       <c r="AH45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>323</v>
+        <v>392</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>45</v>
+        <v>393</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP45" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>325</v>
@@ -6827,116 +6997,117 @@
       <c r="L46" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>120</v>
-      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE46" t="s" s="2">
         <v>327</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>323</v>
+        <v>46</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>45</v>
+        <v>328</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP46" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>329</v>
+        <v>118</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>330</v>
@@ -6945,206 +7116,212 @@
         <v>331</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N47" t="s" s="2">
         <v>121</v>
       </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE47" t="s" s="2">
         <v>332</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>45</v>
+        <v>328</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP47" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>393</v>
+        <v>335</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>394</v>
+        <v>336</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>395</v>
+        <v>121</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG48" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="X48" s="2"/>
-      <c r="Y48" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>55</v>
-      </c>
       <c r="AH48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>396</v>
+        <v>46</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>182</v>
+        <v>46</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>183</v>
+        <v>46</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP48" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="49" hidden="true">
@@ -7153,23 +7330,23 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>163</v>
@@ -7178,453 +7355,585 @@
         <v>398</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>241</v>
+        <v>399</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>243</v>
+        <v>180</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="X49" s="2"/>
       <c r="Y49" t="s" s="2">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE49" t="s" s="2">
         <v>397</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>400</v>
+        <v>46</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>246</v>
+        <v>401</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>247</v>
+        <v>185</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>45</v>
+        <v>186</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>248</v>
+        <v>187</v>
+      </c>
+      <c r="AP49" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>163</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>178</v>
+        <v>46</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP50" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>45</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>259</v>
+        <v>46</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>163</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>260</v>
+        <v>409</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>261</v>
+        <v>410</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>263</v>
+        <v>411</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>45</v>
+        <v>412</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>265</v>
+        <v>46</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>266</v>
+        <v>46</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>267</v>
+        <v>99</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>268</v>
+        <v>46</v>
+      </c>
+      <c r="AP51" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>409</v>
+        <v>265</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG52" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R52" t="s" s="2">
+      <c r="AH52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP52" t="s" s="2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="S52" t="s" s="2">
+      <c r="G53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG53" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="T52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>45</v>
+      <c r="AH53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP53" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO52">
+  <autoFilter ref="A1:AP53">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7634,7 +7943,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI51">
+  <conditionalFormatting sqref="A2:AI52">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pacio-cs.xlsx
+++ b/StructureDefinition-pacio-cs.xlsx
@@ -594,7 +594,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://loinc.org</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -769,7 +769,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The person who performed the assessment. May also be used to provide the practitioner role and organization. </t>
+    <t>The person who performed the assessment. May also be used to provide the practitioner role and organization.</t>
   </si>
   <si>
     <t>Who was responsible for asserting the observed value as "true".</t>

--- a/StructureDefinition-pacio-cs.xlsx
+++ b/StructureDefinition-pacio-cs.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AP$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$52</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="410">
   <si>
     <t>Path</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Argonaut-DQ-DSTU2</t>
   </si>
   <si>
     <t>Mapping: Workflow Pattern</t>
@@ -162,14 +159,14 @@
     <t>Measurements and simple assertions</t>
   </si>
   <si>
-    <t>This profile is  created to meet the 2015 Edition Common Clinical Data Set 'Laboratory test(s) and Laboratory value(s)/result(s)' requirements.</t>
+    <t>Measurements and simple assertions made about a patient, device or other subject.</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}us-core-2:If there is no component or related element then either a value[x] or a data absent reason must be present {(component.empty() and related.empty()) implies (dataAbsentReason or value)}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -508,7 +505,10 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -551,41 +551,26 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name
 </t>
   </si>
   <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Laboratory</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
-    &lt;code value="laboratory"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>Observation.code</t>
-  </si>
-  <si>
-    <t>Name
-Test NameObservation Identifer</t>
-  </si>
-  <si>
     <t>For a Post-Acute Care Assessment, should include a LOINC code and text for the question.</t>
   </si>
   <si>
-    <t>The test that was performed.  A LOINC **SHALL** be used if the concept is present in LOINC.</t>
-  </si>
-  <si>
-    <t>The typical patterns for codes are:  1)  a LOINC code either as a  translation from a "local" code or as a primary code, or 2)  a local code only if no suitable LOINC exists,  or 3)  both the local and the LOINC translation.   Systems SHALL be capable of sending the local code if one exists.  When using LOINC , Use either the SHORTNAME or LONG_COMMON_NAME field for the display.</t>
+    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+  </si>
+  <si>
+    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
@@ -711,21 +696,13 @@
     <t>Clinically relevant time/time-period for observation</t>
   </si>
   <si>
-    <t>For lab tests this is the specimen collection date.  For Ask at Order Entry Questions (AOE)'s this is the date the question was asked.</t>
+    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
   </si>
   <si>
     <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">us-core-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-us-core-1:Datetime must be at least to day. {($this as dateTime).toString().length() &gt;= 8}</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -793,10 +770,10 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Result Value</t>
-  </si>
-  <si>
-    <t>The Laboratory result value.  If a coded value,  the valueCodeableConcept.code **SHOULD**  be selected from [SNOMED CT](http://hl7.org/fhir/ValueSet/uslab-obs-codedresults).  If a numeric value, valueQuantity.code **SHALL** be selected from [UCUM](http://unitsofmeasure.org).  A FHIR [UCUM Codes value set](http://hl7.org/fhir/STU3/valueset-ucum-units.html) that defines all UCUM codes is in the FHIR specification.</t>
+    <t>Actual result</t>
+  </si>
+  <si>
+    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
   </si>
   <si>
     <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
@@ -805,12 +782,8 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t>obs-7
-us-core-2us-core-3us-core-4</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-us-core-4:SHOULD use Snomed CT for coded Results {valueCodeableConcept.coding.system.empty() or valueCodeableConcept.coding.system = 'http://snomed.info/sct'}us-core-3:SHALL use UCUM for coded quantity units. {valueQuantity.system.empty() or valueQuantity.system = 'http://unitsofmeasure.org'}</t>
+    <t xml:space="preserve">obs-7
+</t>
   </si>
   <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
@@ -841,11 +814,14 @@
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
   </si>
   <si>
+    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
-    <t>obs-6
-us-core-2</t>
+    <t xml:space="preserve">obs-6
+</t>
   </si>
   <si>
     <t>value.nullFlavor</t>
@@ -1295,9 +1271,6 @@
     <t>The code and text for the answer to the (associated) question.</t>
   </si>
   <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
-  </si>
-  <si>
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
@@ -1315,13 +1288,6 @@
   <si>
     <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
 The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
-  </si>
-  <si>
-    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-6
-</t>
   </si>
   <si>
     <t>Observation.component.interpretation</t>
@@ -1485,7 +1451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP53"/>
+  <dimension ref="A1:AO52"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1494,48 +1460,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.19921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.9921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="135.2421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="130.70703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="26.89453125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.89453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="32.56640625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="37.70703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1662,110 +1627,107 @@
       <c r="AO1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="AP1" t="s" s="1">
-        <v>41</v>
-      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F2" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG2" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>51</v>
@@ -1777,1199 +1739,1169 @@
         <v>53</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>68</v>
-      </c>
       <c r="AJ4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>72</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AF6" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AF7" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AN7" t="s" s="2">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F8" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE8" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM8" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AF8" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM8" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AN8" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F9" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AE9" t="s" s="2">
+      <c r="AF9" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI9" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AF9" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="AJ9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G10" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="H10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AI10" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AF10" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH10" t="s" s="2">
+      <c r="AJ10" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AI10" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AK10" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL10" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AL10" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>115</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F11" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="N11" t="s" s="2">
-        <v>122</v>
-      </c>
       <c r="O11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF11" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG11" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG11" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F12" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG12" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>130</v>
@@ -2978,370 +2910,360 @@
         <v>131</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AP12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F13" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG13" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG13" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F14" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K14" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG14" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>148</v>
       </c>
       <c r="AN14" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO14" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" hidden="true">
+      <c r="A15" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP14" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="I15" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="N15" t="s" s="2">
-        <v>154</v>
-      </c>
       <c r="O15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
         <v>156</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" hidden="true">
@@ -3350,23 +3272,23 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>163</v>
@@ -3384,29 +3306,29 @@
         <v>167</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
         <v>168</v>
@@ -3415,2113 +3337,2057 @@
         <v>169</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AB16" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>162</v>
       </c>
       <c r="AF16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG16" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG16" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>171</v>
       </c>
       <c r="AO16" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" hidden="true">
+      <c r="A17" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AP16" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" s="2"/>
+      <c r="C17" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="F17" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>163</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>46</v>
+        <v>181</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>46</v>
+        <v>182</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>46</v>
+        <v>183</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AP17" t="s" s="2">
-        <v>46</v>
+        <v>185</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F18" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="X18" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y18" t="s" s="2">
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>188</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F19" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG19" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AL19" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>197</v>
-      </c>
       <c r="AO19" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="O20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AP20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J21" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>46</v>
+        <v>219</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>46</v>
+        <v>220</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AP21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>216</v>
+        <v>45</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F22" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>218</v>
+        <v>135</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>223</v>
+        <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>215</v>
+        <v>45</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>46</v>
+        <v>227</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AP22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F23" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="G23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG23" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>46</v>
+        <v>235</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>46</v>
+        <v>236</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AP23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F24" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>236</v>
+        <v>163</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="N24" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>46</v>
+        <v>244</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>46</v>
+        <v>246</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>242</v>
+        <v>45</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AP24" t="s" s="2">
-        <v>46</v>
+        <v>248</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>163</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>46</v>
+        <v>178</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>46</v>
+        <v>255</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>250</v>
+        <v>67</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>244</v>
+        <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>251</v>
+        <v>98</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>253</v>
+        <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>254</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>46</v>
+        <v>259</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F26" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G26" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>163</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>256</v>
+        <v>135</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="X26" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="Y26" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG26" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH26" t="s" s="2">
-        <v>261</v>
+        <v>45</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>255</v>
+        <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>46</v>
+        <v>265</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>46</v>
+        <v>266</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>99</v>
+        <v>267</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>46</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>264</v>
+        <v>45</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F27" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>163</v>
+        <v>270</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>136</v>
+        <v>271</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>181</v>
+        <v>45</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>268</v>
+        <v>45</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>263</v>
-      </c>
       <c r="AF27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG27" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>273</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>275</v>
+        <v>163</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>276</v>
+        <v>135</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N28" t="s" s="2">
         <v>279</v>
       </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>46</v>
+        <v>280</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>46</v>
+        <v>281</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>46</v>
+        <v>282</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>46</v>
+        <v>283</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>46</v>
+        <v>284</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>281</v>
+        <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>46</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>163</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="O29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="AF29" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>291</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>163</v>
+        <v>296</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>285</v>
+        <v>45</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>296</v>
+        <v>45</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>297</v>
+        <v>45</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>46</v>
+        <v>299</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>46</v>
+        <v>300</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>299</v>
+        <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>46</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>46</v>
+        <v>307</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>306</v>
+        <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F32" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="O32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG32" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>68</v>
+        <v>316</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>314</v>
+        <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>315</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>317</v>
+        <v>57</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>136</v>
+        <v>320</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>321</v>
+        <v>45</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>323</v>
+        <v>45</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" hidden="true">
@@ -5530,26 +5396,26 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F34" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>325</v>
@@ -5557,117 +5423,116 @@
       <c r="L34" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M34" s="2"/>
+      <c r="M34" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>327</v>
       </c>
       <c r="AF34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG34" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>328</v>
+        <v>45</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>118</v>
+        <v>329</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F35" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>330</v>
@@ -5676,90 +5541,89 @@
         <v>331</v>
       </c>
       <c r="M35" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>332</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG35" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>328</v>
+        <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" hidden="true">
@@ -5768,26 +5632,26 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>334</v>
+        <v>45</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>101</v>
+        <v>334</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>335</v>
@@ -5795,601 +5659,584 @@
       <c r="L36" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>122</v>
-      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH36" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AF36" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AI36" t="s" s="2">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>46</v>
+        <v>338</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>46</v>
+        <v>339</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>343</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>344</v>
+        <v>45</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>339</v>
+        <v>163</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+      <c r="N38" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>46</v>
+        <v>349</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>46</v>
+        <v>350</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>342</v>
+        <v>45</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>46</v>
+        <v>351</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>46</v>
+        <v>352</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>343</v>
+        <v>267</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>348</v>
+        <v>45</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F39" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>163</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG39" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>46</v>
+        <v>351</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>357</v>
+        <v>267</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>163</v>
+        <v>361</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>285</v>
+        <v>45</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>363</v>
+        <v>45</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>364</v>
+        <v>45</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>356</v>
+        <v>45</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>366</v>
+        <v>57</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>367</v>
@@ -6398,356 +6245,347 @@
         <v>368</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" t="s" s="2">
-        <v>369</v>
-      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>46</v>
+        <v>338</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>46</v>
+        <v>369</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>370</v>
+        <v>45</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="G42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="J42" t="s" s="2">
-        <v>58</v>
+        <v>371</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG42" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG42" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>46</v>
+        <v>374</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>374</v>
+        <v>45</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F43" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>136</v>
+        <v>378</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG43" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG43" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>46</v>
+        <v>374</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>380</v>
+        <v>45</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F44" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>382</v>
+        <v>312</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>383</v>
@@ -6758,238 +6596,230 @@
       <c r="M44" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="N44" s="2"/>
+      <c r="N44" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="O44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG44" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG44" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>46</v>
+        <v>387</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>386</v>
+        <v>45</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J45" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="J45" t="s" s="2">
-        <v>317</v>
-      </c>
       <c r="K45" t="s" s="2">
-        <v>388</v>
+        <v>320</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>387</v>
+        <v>322</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>392</v>
+        <v>323</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>393</v>
+        <v>45</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F46" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>325</v>
@@ -6997,117 +6827,116 @@
       <c r="L46" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M46" s="2"/>
+      <c r="M46" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
         <v>327</v>
       </c>
       <c r="AF46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG46" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG46" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>328</v>
+        <v>45</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>118</v>
+        <v>329</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F47" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>330</v>
@@ -7116,212 +6945,206 @@
         <v>331</v>
       </c>
       <c r="M47" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
         <v>332</v>
       </c>
       <c r="AF47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG47" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG47" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>328</v>
+        <v>45</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>334</v>
+        <v>45</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>335</v>
+        <v>393</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>336</v>
+        <v>394</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>121</v>
+        <v>395</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>46</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="X48" s="2"/>
       <c r="Y48" t="s" s="2">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>337</v>
+        <v>392</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>46</v>
+        <v>182</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>46</v>
+        <v>183</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" hidden="true">
@@ -7330,23 +7153,23 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="F49" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>163</v>
@@ -7355,585 +7178,453 @@
         <v>398</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>400</v>
-      </c>
       <c r="N49" t="s" s="2">
-        <v>180</v>
+        <v>243</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="X49" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y49" t="s" s="2">
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
         <v>397</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>46</v>
+        <v>400</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>401</v>
+        <v>246</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>185</v>
+        <v>247</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AP49" t="s" s="2">
-        <v>46</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>163</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>405</v>
-      </c>
       <c r="N50" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>46</v>
+        <v>178</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>46</v>
+        <v>255</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>46</v>
+        <v>256</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>406</v>
+        <v>98</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>253</v>
+        <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>254</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>46</v>
+        <v>259</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F51" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>163</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>409</v>
+        <v>260</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>410</v>
+        <v>261</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>411</v>
+        <v>263</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AF51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG51" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG51" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH51" t="s" s="2">
-        <v>412</v>
+        <v>45</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>46</v>
+        <v>265</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>46</v>
+        <v>266</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>99</v>
+        <v>267</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>46</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>264</v>
+        <v>45</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F52" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>163</v>
+        <v>45</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>265</v>
+        <v>409</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>267</v>
+        <v>315</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>181</v>
+        <v>45</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>268</v>
+        <v>45</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>269</v>
+        <v>45</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="AF52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG52" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>270</v>
+        <v>317</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>271</v>
+        <v>318</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="53" hidden="true">
-      <c r="A53" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP53">
+  <autoFilter ref="A1:AO52">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7943,7 +7634,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI52">
+  <conditionalFormatting sqref="A2:AI51">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pacio-cs.xlsx
+++ b/StructureDefinition-pacio-cs.xlsx
@@ -1460,47 +1460,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.9921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.19921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="130.70703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="135.2421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.89453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="37.70703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="107.01953125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-pacio-cs.xlsx
+++ b/StructureDefinition-pacio-cs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="411">
   <si>
     <t>Path</t>
   </si>
@@ -768,6 +768,10 @@
   </si>
   <si>
     <t>Observation.value[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -4235,19 +4239,19 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>163</v>
+        <v>240</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4305,7 +4309,7 @@
         <v>55</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>67</v>
@@ -4314,24 +4318,24 @@
         <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4357,16 +4361,16 @@
         <v>163</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4394,10 +4398,10 @@
         <v>178</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
@@ -4415,7 +4419,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4424,7 +4428,7 @@
         <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>67</v>
@@ -4439,7 +4443,7 @@
         <v>98</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
@@ -4450,11 +4454,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4479,13 +4483,13 @@
         <v>135</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4513,10 +4517,10 @@
         <v>178</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>45</v>
@@ -4534,7 +4538,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4552,24 +4556,24 @@
         <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4592,19 +4596,19 @@
         <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4653,7 +4657,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4674,10 +4678,10 @@
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
@@ -4688,7 +4692,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4717,10 +4721,10 @@
         <v>135</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4746,13 +4750,13 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>45</v>
@@ -4770,7 +4774,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4788,24 +4792,24 @@
         <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4834,13 +4838,13 @@
         <v>135</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -4865,13 +4869,13 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
@@ -4889,7 +4893,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4910,10 +4914,10 @@
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
@@ -4924,7 +4928,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4947,16 +4951,16 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5006,7 +5010,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5024,24 +5028,24 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5064,16 +5068,16 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5123,7 +5127,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5141,24 +5145,24 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5181,19 +5185,19 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5242,7 +5246,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5254,7 +5258,7 @@
         <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>45</v>
@@ -5263,10 +5267,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5277,7 +5281,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5303,10 +5307,10 @@
         <v>57</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5357,7 +5361,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5381,7 +5385,7 @@
         <v>45</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5392,7 +5396,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5418,10 +5422,10 @@
         <v>100</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>120</v>
@@ -5474,7 +5478,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5498,7 +5502,7 @@
         <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5509,11 +5513,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5535,10 +5539,10 @@
         <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>120</v>
@@ -5593,7 +5597,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5628,7 +5632,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5651,13 +5655,13 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5708,7 +5712,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5717,7 +5721,7 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>67</v>
@@ -5729,10 +5733,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5743,7 +5747,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5766,13 +5770,13 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5823,7 +5827,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5832,7 +5836,7 @@
         <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>67</v>
@@ -5844,10 +5848,10 @@
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5858,7 +5862,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5884,16 +5888,16 @@
         <v>163</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -5921,10 +5925,10 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -5942,7 +5946,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -5960,13 +5964,13 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -5977,7 +5981,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6003,16 +6007,16 @@
         <v>163</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6037,13 +6041,13 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6061,7 +6065,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6079,13 +6083,13 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6096,7 +6100,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6119,17 +6123,17 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6178,7 +6182,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6202,7 +6206,7 @@
         <v>45</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6213,7 +6217,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6239,10 +6243,10 @@
         <v>57</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6293,7 +6297,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6314,10 +6318,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6328,7 +6332,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6351,16 +6355,16 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6410,7 +6414,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6431,10 +6435,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6445,7 +6449,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6468,16 +6472,16 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6527,7 +6531,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6548,10 +6552,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6562,7 +6566,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6585,19 +6589,19 @@
         <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6646,7 +6650,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6667,10 +6671,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6681,7 +6685,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6707,10 +6711,10 @@
         <v>57</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6761,7 +6765,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6785,7 +6789,7 @@
         <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6796,7 +6800,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6822,10 +6826,10 @@
         <v>100</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>120</v>
@@ -6878,7 +6882,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6902,7 +6906,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -6913,11 +6917,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6939,10 +6943,10 @@
         <v>100</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>120</v>
@@ -6997,7 +7001,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7032,7 +7036,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7058,13 +7062,13 @@
         <v>163</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>177</v>
@@ -7114,7 +7118,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>55</v>
@@ -7132,7 +7136,7 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>182</v>
@@ -7149,7 +7153,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7175,16 +7179,16 @@
         <v>163</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7233,7 +7237,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7251,24 +7255,24 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7294,16 +7298,16 @@
         <v>163</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7331,10 +7335,10 @@
         <v>178</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7352,7 +7356,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7361,7 +7365,7 @@
         <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>67</v>
@@ -7376,7 +7380,7 @@
         <v>98</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7387,11 +7391,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7413,16 +7417,16 @@
         <v>163</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7450,10 +7454,10 @@
         <v>178</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7471,7 +7475,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7489,24 +7493,24 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7532,16 +7536,16 @@
         <v>45</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7590,7 +7594,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7611,10 +7615,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>

--- a/StructureDefinition-pacio-cs.xlsx
+++ b/StructureDefinition-pacio-cs.xlsx
@@ -490,7 +490,7 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>Should have the value 'final' to indicate the observation is complete.</t>
+    <t>Should have the value 'final' when the observation is complete.</t>
   </si>
   <si>
     <t>The status of the result value.</t>
@@ -607,7 +607,7 @@
 </t>
   </si>
   <si>
-    <t>Should only reference a Patient resource</t>
+    <t>Should only reference a Patient resource.</t>
   </si>
   <si>
     <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
@@ -774,7 +774,7 @@
 CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
-    <t>Actual result</t>
+    <t>Whenever possible should use the CodeableConcept type to provide a suitable code to define the concept.</t>
   </si>
   <si>
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>

--- a/StructureDefinition-pacio-cs.xlsx
+++ b/StructureDefinition-pacio-cs.xlsx
@@ -490,7 +490,7 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>Should have the value 'final' when the observation is complete.</t>
+    <t>Should have the value 'final' when the observation is complete and there are no further actions needed. Otherwise, another value from the value set may appropriately be used.</t>
   </si>
   <si>
     <t>The status of the result value.</t>
@@ -746,7 +746,7 @@
 </t>
   </si>
   <si>
-    <t>The person who performed the assessment. May also be used to provide the practitioner role and organization.</t>
+    <t>The person who performed the assessment. The preferred way to specify the performer is to use the PractitionerRole resource to provide both the practitioner and organization.</t>
   </si>
   <si>
     <t>Who was responsible for asserting the observed value as "true".</t>
@@ -1211,7 +1211,7 @@
 </t>
   </si>
   <si>
-    <t>Related measurements the observation is made from</t>
+    <t>Should point back to...</t>
   </si>
   <si>
     <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
@@ -1474,7 +1474,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="135.2421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="164.14453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -6447,7 +6447,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>377</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>44</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>45</v>

--- a/StructureDefinition-pacio-cs.xlsx
+++ b/StructureDefinition-pacio-cs.xlsx
@@ -1211,7 +1211,7 @@
 </t>
   </si>
   <si>
-    <t>Should point back to...</t>
+    <t>Should point back to the QuestionnaireResponse that this resource is derived from.</t>
   </si>
   <si>
     <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>

--- a/StructureDefinition-pacio-cs.xlsx
+++ b/StructureDefinition-pacio-cs.xlsx
@@ -359,10 +359,10 @@
 </t>
   </si>
   <si>
-    <t>Where event occurred</t>
-  </si>
-  <si>
-    <t>The principal physical location where the {{title}} was performed.</t>
+    <t>An extension to indicate where the observation event occurred.</t>
+  </si>
+  <si>
+    <t>The principal physical location where the observation event occurred.</t>
   </si>
   <si>
     <t>May reference only *Provenance* resources deemed “relevant” or important. This element does not point to the Provenance associated with the current version of the resource - as it would be created after this version existed. The Provenance for the current version can be retrieved with a [` _revinclude`](search.html#revinclude).</t>
@@ -774,7 +774,7 @@
 CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
-    <t>Whenever possible should use the CodeableConcept type to provide a suitable code to define the concept.</t>
+    <t xml:space="preserve">Whenever possible should use the CodeableConcept type to provide a suitable code to define the concept. However, for an assessment score or roll-up value, use the Quantity type. </t>
   </si>
   <si>
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>
@@ -1474,7 +1474,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="164.14453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="168.42578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-pacio-cs.xlsx
+++ b/StructureDefinition-pacio-cs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="411">
   <si>
     <t>Path</t>
   </si>
@@ -533,7 +533,7 @@
 </t>
   </si>
   <si>
-    <t>Classification of  type of observation</t>
+    <t>A second category code may be used along with the code “functioning”. For example, for assessment tool/survey instrument observations use “survey” as a second code.</t>
   </si>
   <si>
     <t>A code that classifies the general type of observation being made.</t>
@@ -545,10 +545,18 @@
     <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://paciowg.github.io/cognitive-status-ig/CodeSystem/pacio-cat-cs"/&gt;
+    &lt;code value="functioning"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://paciowg.github.io/cognitive-status-ig/ValueSet/pacio-cat-vs</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -574,9 +582,6 @@
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
@@ -1488,7 +1493,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="61.140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
@@ -3270,7 +3275,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>162</v>
       </c>
@@ -3280,13 +3285,13 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>44</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>45</v>
@@ -3317,7 +3322,7 @@
         <v>45</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>45</v>
@@ -3332,13 +3337,11 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
@@ -3380,10 +3383,10 @@
         <v>45</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>45</v>
@@ -3391,11 +3394,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3417,16 +3420,16 @@
         <v>163</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3451,7 +3454,7 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
@@ -3473,7 +3476,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>55</v>
@@ -4395,7 +4398,7 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="X25" t="s" s="2">
         <v>255</v>
@@ -4514,7 +4517,7 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="X26" t="s" s="2">
         <v>264</v>
@@ -7071,7 +7074,7 @@
         <v>396</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7096,7 +7099,7 @@
         <v>45</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" t="s" s="2">
@@ -7332,7 +7335,7 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="X50" t="s" s="2">
         <v>255</v>
@@ -7451,7 +7454,7 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="X51" t="s" s="2">
         <v>264</v>

--- a/StructureDefinition-pacio-cs.xlsx
+++ b/StructureDefinition-pacio-cs.xlsx
@@ -6,16 +6,128 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Elements" r:id="rId3" sheetId="1"/>
+    <sheet name="Metadata" r:id="rId3" sheetId="1"/>
+    <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$57</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="468">
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>http://paciowg.github.io/cognitive-status-ig/StructureDefinition/pacio-cs</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>0.1.0</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>CognitiveStatus</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>PACIO Cognitive Status</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2021-09-15T16:24:56-07:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>HL7 Patient Care Work Group</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>An exchange of cognitive status observation for a patient. This profile is used for exchanging a single observation data generally included in a set of observation data collected through the use of a structured resource (e.g. assessment tool, instrument, or screen).</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Base Definition</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Observation</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Derivation</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
   <si>
     <t>Path</t>
   </si>
@@ -138,9 +250,6 @@
   </si>
   <si>
     <t>Mapping: SNOMED CT Attribute Binding</t>
-  </si>
-  <si>
-    <t>Observation</t>
   </si>
   <si>
     <t>Vital Signs
@@ -355,7 +464,7 @@
     <t>event-location</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {event-location}
+    <t xml:space="preserve">Extension {http://paciowg.github.io/cognitive-status-ig/StructureDefinition/event-location}
 </t>
   </si>
   <si>
@@ -363,24 +472,12 @@
   </si>
   <si>
     <t>The principal physical location where the observation event occurred.</t>
-  </si>
-  <si>
-    <t>May reference only *Provenance* resources deemed “relevant” or important. This element does not point to the Provenance associated with the current version of the resource - as it would be created after this version existed. The Provenance for the current version can be retrieved with a [` _revinclude`](search.html#revinclude).</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>Event.location</t>
-  </si>
-  <si>
-    <t>EVN.7</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=LOC].role</t>
-  </si>
-  <si>
     <t>Observation.modifierExtension</t>
   </si>
   <si>
@@ -545,12 +642,26 @@
     <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://paciowg.github.io/cognitive-status-ig/CodeSystem/pacio-cat-cs"/&gt;
-    &lt;code value="functioning"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:coding}
+</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>functioning</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
   </si>
   <si>
     <t>extensible</t>
@@ -559,10 +670,93 @@
     <t>http://paciowg.github.io/cognitive-status-ig/ValueSet/pacio-cat-vs</t>
   </si>
   <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
+    <t>Observation.category.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.category.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.category.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://paciowg.github.io/cognitive-status-ig/CodeSystem/pacio-cat-cs"/&gt;
+  &lt;code value="functioning"/&gt;
+  &lt;display value="Functioning"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Observation.category.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -572,7 +766,7 @@
 </t>
   </si>
   <si>
-    <t>For a Post-Acute Care Assessment, should include a LOINC code and text for the question.</t>
+    <t>For a Post-Acute Care Assessment, should include a LOINC code and text for the question or concept name.</t>
   </si>
   <si>
     <t>Describes what was observed. Sometimes this is called the observation "name".</t>
@@ -659,7 +853,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter)
 </t>
   </si>
   <si>
@@ -747,7 +941,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization)
 </t>
   </si>
   <si>
@@ -779,7 +973,7 @@
 CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Whenever possible should use the CodeableConcept type to provide a suitable code to define the concept. However, for an assessment score or roll-up value, use the Quantity type. </t>
+    <t>Whenever possible should use the CodeableConcept datatype to provide a suitable code to define the concept for the observation data. As for values like an assessment score or roll-up value, the datatype for this element should be determined by Observation.code. However, for values that are ordinal, may use the CodeableConcept datatype along with the Ordinal Value Extension.</t>
   </si>
   <si>
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>
@@ -1029,28 +1223,7 @@
     <t>Observation.referenceRange.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Observation.referenceRange.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
@@ -1212,7 +1385,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(QuestionnaireResponse)
 </t>
   </si>
   <si>
@@ -1460,9 +1633,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO52"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true">
+    <sheetView workbookViewId="0" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="15.703125" customWidth="true"/>
+    <col min="2" max="2" width="80.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:AO57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -1479,7 +1831,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="168.42578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1496,7 +1848,7 @@
     <col min="25" max="25" width="61.140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1514,6124 +1866,6711 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>40</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="X16" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="Y16" t="s" s="2">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="AB16" s="2"/>
       <c r="AC16" t="s" s="2">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="C17" t="s" s="2">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>185</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>195</v>
+        <v>81</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>135</v>
+        <v>215</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>199</v>
+        <v>152</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>45</v>
+        <v>217</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>195</v>
+        <v>81</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>213</v>
+        <v>81</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>214</v>
+        <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>219</v>
+        <v>81</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>45</v>
+        <v>238</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>135</v>
+        <v>239</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O22" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>45</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="N23" t="s" s="2">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>245</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AL24" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="AM24" t="s" s="2">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>45</v>
+        <v>259</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>249</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>163</v>
+        <v>267</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>257</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>98</v>
+        <v>273</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>163</v>
+        <v>278</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>135</v>
+        <v>279</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>269</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>272</v>
+        <v>167</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>163</v>
+        <v>295</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>135</v>
+        <v>296</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O28" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>281</v>
+        <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>283</v>
+        <v>81</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>45</v>
+        <v>299</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>284</v>
+        <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>45</v>
+        <v>302</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>287</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>163</v>
+        <v>304</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>135</v>
+        <v>305</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>281</v>
+        <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>292</v>
+        <v>81</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>293</v>
+        <v>81</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>45</v>
+        <v>309</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>45</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>297</v>
+        <v>195</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>135</v>
+        <v>315</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="O30" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>45</v>
+        <v>207</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>45</v>
+        <v>320</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>45</v>
+        <v>321</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>300</v>
+        <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>301</v>
+        <v>134</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>303</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>45</v>
+        <v>324</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>305</v>
+        <v>195</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="O31" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>45</v>
+        <v>207</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>45</v>
+        <v>328</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>45</v>
+        <v>329</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>311</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>135</v>
+        <v>336</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>317</v>
+        <v>103</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>57</v>
+        <v>195</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>321</v>
+        <v>167</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>45</v>
+        <v>345</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>45</v>
+        <v>346</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>45</v>
+        <v>347</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>45</v>
+        <v>348</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>45</v>
+        <v>349</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>45</v>
+        <v>351</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>326</v>
+        <v>167</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O34" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>45</v>
+        <v>345</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>45</v>
+        <v>356</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>45</v>
+        <v>357</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>45</v>
+        <v>358</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>330</v>
+        <v>81</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>100</v>
+        <v>361</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>331</v>
+        <v>167</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>121</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>45</v>
+        <v>364</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>45</v>
+        <v>365</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>98</v>
+        <v>366</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>45</v>
+        <v>367</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>336</v>
+        <v>167</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>338</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>45</v>
+        <v>372</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>45</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>342</v>
+        <v>167</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="O37" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>338</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>67</v>
+        <v>381</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>346</v>
+        <v>210</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>350</v>
+        <v>81</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>345</v>
+        <v>212</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>352</v>
+        <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>353</v>
+        <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>355</v>
+        <v>215</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>356</v>
+        <v>216</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>281</v>
+        <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>359</v>
+        <v>81</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>360</v>
+        <v>81</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>354</v>
+        <v>218</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>352</v>
+        <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>353</v>
+        <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>45</v>
+        <v>387</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>362</v>
+        <v>136</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="N40" t="s" s="2">
-        <v>365</v>
+        <v>153</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>366</v>
+        <v>134</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>57</v>
+        <v>392</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>45</v>
+        <v>395</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>339</v>
+        <v>396</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>135</v>
+        <v>399</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>45</v>
+        <v>395</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>378</v>
+        <v>195</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O43" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>45</v>
+        <v>407</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>45</v>
+        <v>408</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>45</v>
+        <v>409</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>383</v>
+        <v>411</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>313</v>
+        <v>195</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>385</v>
+        <v>413</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>386</v>
+        <v>414</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>387</v>
+        <v>415</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>45</v>
+        <v>345</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>45</v>
+        <v>416</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>383</v>
+        <v>411</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>45</v>
+        <v>409</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>389</v>
+        <v>332</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>390</v>
+        <v>418</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>57</v>
+        <v>419</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>321</v>
+        <v>420</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>322</v>
+        <v>421</v>
       </c>
       <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+      <c r="N45" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="O45" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>323</v>
+        <v>418</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>324</v>
+        <v>423</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>326</v>
+        <v>425</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>328</v>
+        <v>424</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>324</v>
+        <v>427</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>392</v>
+        <v>428</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>330</v>
+        <v>81</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>100</v>
+        <v>429</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>331</v>
+        <v>167</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>332</v>
+        <v>430</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>121</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>333</v>
+        <v>428</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>45</v>
+        <v>432</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>98</v>
+        <v>433</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>163</v>
+        <v>435</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="X48" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y48" t="s" s="2">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>397</v>
+        <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>182</v>
+        <v>432</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>183</v>
+        <v>439</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>163</v>
+        <v>377</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>242</v>
+        <v>442</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>244</v>
+        <v>444</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>401</v>
+        <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>247</v>
+        <v>445</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>248</v>
+        <v>446</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>249</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>402</v>
+        <v>447</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>403</v>
+        <v>210</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>402</v>
+        <v>212</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>257</v>
+        <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>406</v>
+        <v>448</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>260</v>
+        <v>149</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>407</v>
+        <v>215</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>406</v>
+        <v>218</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>269</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>408</v>
+        <v>449</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>45</v>
+        <v>387</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>315</v>
+        <v>152</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>316</v>
+        <v>153</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="X53" s="2"/>
+      <c r="Y53" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="O55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="X55" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AN52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>45</v>
+      <c r="Y55" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO52">
+  <autoFilter ref="A1:AO57">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7641,7 +8580,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI51">
+  <conditionalFormatting sqref="A2:AI56">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pacio-cs.xlsx
+++ b/StructureDefinition-pacio-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T16:24:56-07:00</t>
+    <t>2021-09-15T21:08:33-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pacio-cs.xlsx
+++ b/StructureDefinition-pacio-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T21:08:33-07:00</t>
+    <t>2021-09-16T08:49:25-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>140</v>

--- a/StructureDefinition-pacio-cs.xlsx
+++ b/StructureDefinition-pacio-cs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="468">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-16T08:49:25-07:00</t>
+    <t>2021-09-29T17:17:11-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1404,9 +1404,6 @@
     <t>Observation.component</t>
   </si>
   <si>
-    <t>If used, the answers for the associated questions (for the purpose of grouping answers under a heading and displaying side-by-side columns)</t>
-  </si>
-  <si>
     <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>
   </si>
   <si>
@@ -1434,13 +1431,16 @@
     <t>Observation.component.code</t>
   </si>
   <si>
-    <t>If used, the LOINC code or text of the column header (for the purpose of grouping answers under a heading and displaying side-by-side columns).</t>
+    <t>Type of component observation (code / type)</t>
   </si>
   <si>
     <t>Describes what was observed. Sometimes this is called the observation "code".</t>
   </si>
   <si>
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1450,7 +1450,7 @@
     <t>Observation.component.value[x]</t>
   </si>
   <si>
-    <t>The code and text for the answer to the (associated) question.</t>
+    <t>Actual component result</t>
   </si>
   <si>
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
@@ -7534,16 +7534,16 @@
         <v>377</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>81</v>
@@ -7613,10 +7613,10 @@
         <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
@@ -7627,7 +7627,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7742,7 +7742,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7859,7 +7859,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7978,7 +7978,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8004,13 +8004,13 @@
         <v>195</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>242</v>
@@ -8038,9 +8038,11 @@
         <v>81</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="X53" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="Y53" t="s" s="2">
         <v>243</v>
       </c>
@@ -8060,7 +8062,7 @@
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>91</v>
@@ -8118,7 +8120,7 @@
         <v>92</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>195</v>
+        <v>304</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>456</v>

--- a/StructureDefinition-pacio-cs.xlsx
+++ b/StructureDefinition-pacio-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-29T17:17:11-07:00</t>
+    <t>2021-09-30T07:46:12-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
